--- a/data/trans_orig/P22S1-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P22S1-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1B5F45-9510-4D13-938D-6086F00E40BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B497222-C43B-41F8-B9B3-6EA37230CCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B4B3A3FE-E294-4901-9F50-97DA043FA6B7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51518111-B05C-498C-89A8-8E84565292B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3356" uniqueCount="648">
   <si>
     <t>Población según tipo de seguro sanitario en 2007 (Tasa respuesta: 99,88%)</t>
   </si>
@@ -971,1051 +971,1018 @@
     <t>—%</t>
   </si>
   <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,98%)</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Población según tipo de seguro sanitario en 2023 (Tasa respuesta: 99,98%)</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>95,45%</t>
   </si>
   <si>
     <t>96,21%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>94,96%</t>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
 </sst>
 </file>
@@ -2427,7 +2394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62677A4D-1BEE-47FF-998D-D9C9EFF7D300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F666B720-9C4C-4D64-BD2F-1669C7570F8C}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6712,7 +6679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE78B976-D15F-4469-9140-70AEA3E16E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D0A36B-59C9-424F-9241-A843D2109DB4}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7417,7 +7384,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7468,7 +7435,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7480,10 +7447,10 @@
         <v>14</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7465,13 @@
         <v>12070</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H18" s="7">
         <v>11</v>
@@ -7516,10 +7483,10 @@
         <v>230</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -7531,10 +7498,10 @@
         <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7519,7 @@
         <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>137</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>317</v>
@@ -7564,13 +7531,13 @@
         <v>8023</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -7579,13 +7546,13 @@
         <v>23092</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7567,13 @@
         <v>474302</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>457</v>
@@ -7615,13 +7582,13 @@
         <v>494095</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>904</v>
@@ -7630,13 +7597,13 @@
         <v>968397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,7 +7677,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7725,7 +7692,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7761,7 +7728,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7776,7 +7743,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7812,7 +7779,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7827,7 +7794,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7863,7 +7830,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7878,7 +7845,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -7893,7 +7860,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7908,13 +7875,13 @@
         <v>1945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -7923,13 +7890,13 @@
         <v>1758</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -7944,7 +7911,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,7 +7932,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -7980,7 +7947,7 @@
         <v>12</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -8010,13 +7977,13 @@
         <v>13477</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -8025,13 +7992,13 @@
         <v>7809</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -8040,13 +8007,13 @@
         <v>21286</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8061,13 +8028,13 @@
         <v>307689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>309</v>
@@ -8076,13 +8043,13 @@
         <v>331453</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M29" s="7">
         <v>613</v>
@@ -8094,10 +8061,10 @@
         <v>240</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,7 +8204,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -8252,7 +8219,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8273,7 +8240,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -8297,13 +8264,13 @@
         <v>2444</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>258</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8324,7 +8291,7 @@
         <v>25</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -8339,7 +8306,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -8351,10 +8318,10 @@
         <v>68</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8375,7 +8342,7 @@
         <v>132</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="H35" s="7">
         <v>5</v>
@@ -8390,7 +8357,7 @@
         <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -8420,13 +8387,13 @@
         <v>23436</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>111</v>
+        <v>350</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="H36" s="7">
         <v>11</v>
@@ -8435,13 +8402,13 @@
         <v>11201</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -8453,10 +8420,10 @@
         <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>356</v>
+        <v>153</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>357</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,10 +8441,10 @@
         <v>142</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -8486,13 +8453,13 @@
         <v>8339</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>195</v>
+        <v>89</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -8504,10 +8471,10 @@
         <v>18</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>361</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8525,10 +8492,10 @@
         <v>122</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H38" s="7">
         <v>600</v>
@@ -8537,13 +8504,13 @@
         <v>648368</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="M38" s="7">
         <v>1189</v>
@@ -8555,10 +8522,10 @@
         <v>301</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8743,13 +8710,13 @@
         <v>1196</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -8764,7 +8731,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>216</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8785,7 +8752,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>118</v>
+        <v>363</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -8815,7 +8782,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8836,7 +8803,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H44" s="7">
         <v>2</v>
@@ -8851,7 +8818,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -8860,13 +8827,13 @@
         <v>2792</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>69</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>334</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -8902,7 +8869,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M45" s="7">
         <v>2</v>
@@ -8917,7 +8884,7 @@
         <v>11</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>114</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,7 +8905,7 @@
         <v>133</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -8947,13 +8914,13 @@
         <v>964</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M46" s="7">
         <v>4</v>
@@ -8968,7 +8935,7 @@
         <v>76</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -8983,13 +8950,13 @@
         <v>207548</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="H47" s="7">
         <v>206</v>
@@ -8998,13 +8965,13 @@
         <v>213654</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>126</v>
+        <v>375</v>
       </c>
       <c r="M47" s="7">
         <v>397</v>
@@ -9016,10 +8983,10 @@
         <v>242</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9159,7 +9126,7 @@
         <v>11</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -9174,7 +9141,7 @@
         <v>11</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>86</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9246,7 +9213,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -9261,7 +9228,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>387</v>
+        <v>143</v>
       </c>
       <c r="M52" s="7">
         <v>2</v>
@@ -9276,7 +9243,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>388</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9393,13 +9360,13 @@
         <v>11357</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H55" s="7">
         <v>4</v>
@@ -9408,13 +9375,13 @@
         <v>4043</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="M55" s="7">
         <v>13</v>
@@ -9423,13 +9390,13 @@
         <v>15400</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9444,13 +9411,13 @@
         <v>261570</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H56" s="7">
         <v>262</v>
@@ -9459,13 +9426,13 @@
         <v>272246</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M56" s="7">
         <v>513</v>
@@ -9474,13 +9441,13 @@
         <v>533816</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9614,13 +9581,13 @@
         <v>1252</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="M59" s="7">
         <v>1</v>
@@ -9635,7 +9602,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>50</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -9758,7 +9725,7 @@
         <v>283</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>266</v>
+        <v>394</v>
       </c>
       <c r="H62" s="7">
         <v>3</v>
@@ -9773,7 +9740,7 @@
         <v>220</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="M62" s="7">
         <v>6</v>
@@ -9788,7 +9755,7 @@
         <v>132</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -9806,10 +9773,10 @@
         <v>133</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="H63" s="7">
         <v>3</v>
@@ -9824,7 +9791,7 @@
         <v>220</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M63" s="7">
         <v>6</v>
@@ -9836,10 +9803,10 @@
         <v>50</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -9854,13 +9821,13 @@
         <v>18739</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>405</v>
+        <v>137</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="H64" s="7">
         <v>11</v>
@@ -9869,13 +9836,13 @@
         <v>12792</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="M64" s="7">
         <v>28</v>
@@ -9884,13 +9851,13 @@
         <v>31530</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -9905,13 +9872,13 @@
         <v>636539</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>411</v>
+        <v>162</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="H65" s="7">
         <v>618</v>
@@ -9920,13 +9887,13 @@
         <v>672087</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="M65" s="7">
         <v>1213</v>
@@ -9935,13 +9902,13 @@
         <v>1308626</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -10015,7 +9982,7 @@
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H67" s="7">
         <v>0</v>
@@ -10066,7 +10033,7 @@
         <v>12</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -10141,7 +10108,7 @@
         <v>1268</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>11</v>
@@ -10165,10 +10132,10 @@
         <v>224</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -10183,7 +10150,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="M70" s="7">
         <v>6</v>
@@ -10195,10 +10162,10 @@
         <v>74</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -10219,7 +10186,7 @@
         <v>282</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="H71" s="7">
         <v>6</v>
@@ -10234,7 +10201,7 @@
         <v>194</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="M71" s="7">
         <v>12</v>
@@ -10246,10 +10213,10 @@
         <v>292</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>422</v>
+        <v>248</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -10267,10 +10234,10 @@
         <v>84</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="H72" s="7">
         <v>7</v>
@@ -10285,7 +10252,7 @@
         <v>50</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="M72" s="7">
         <v>12</v>
@@ -10297,10 +10264,10 @@
         <v>228</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>78</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -10318,10 +10285,10 @@
         <v>203</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>286</v>
+        <v>148</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="H73" s="7">
         <v>9</v>
@@ -10333,10 +10300,10 @@
         <v>222</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>425</v>
+        <v>73</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="M73" s="7">
         <v>17</v>
@@ -10348,10 +10315,10 @@
         <v>119</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>83</v>
+        <v>414</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -10366,13 +10333,13 @@
         <v>749251</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>328</v>
+        <v>416</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="H74" s="7">
         <v>733</v>
@@ -10381,13 +10348,13 @@
         <v>793624</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="M74" s="7">
         <v>1426</v>
@@ -10396,13 +10363,13 @@
         <v>1542875</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>432</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -10542,7 +10509,7 @@
         <v>277</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="M77" s="7">
         <v>5</v>
@@ -10572,13 +10539,13 @@
         <v>3712</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="H78" s="7">
         <v>1</v>
@@ -10593,7 +10560,7 @@
         <v>11</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M78" s="7">
         <v>4</v>
@@ -10605,10 +10572,10 @@
         <v>285</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -10626,10 +10593,10 @@
         <v>15</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>350</v>
+        <v>69</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="H79" s="7">
         <v>5</v>
@@ -10641,10 +10608,10 @@
         <v>220</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="M79" s="7">
         <v>16</v>
@@ -10656,10 +10623,10 @@
         <v>217</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -10674,13 +10641,13 @@
         <v>21648</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="H80" s="7">
         <v>21</v>
@@ -10695,7 +10662,7 @@
         <v>133</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="M80" s="7">
         <v>39</v>
@@ -10704,13 +10671,13 @@
         <v>46203</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>74</v>
+        <v>254</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -10725,13 +10692,13 @@
         <v>47022</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="H81" s="7">
         <v>34</v>
@@ -10743,10 +10710,10 @@
         <v>142</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>137</v>
+        <v>428</v>
       </c>
       <c r="M81" s="7">
         <v>71</v>
@@ -10758,10 +10725,10 @@
         <v>256</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>405</v>
+        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -10776,13 +10743,13 @@
         <v>77795</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>153</v>
+        <v>430</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>85</v>
+        <v>354</v>
       </c>
       <c r="H82" s="7">
         <v>47</v>
@@ -10794,10 +10761,10 @@
         <v>223</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="M82" s="7">
         <v>116</v>
@@ -10806,13 +10773,13 @@
         <v>130747</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -10830,10 +10797,10 @@
         <v>273</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>442</v>
+        <v>160</v>
       </c>
       <c r="H83" s="7">
         <v>3185</v>
@@ -10842,13 +10809,13 @@
         <v>3425527</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="M83" s="7">
         <v>6255</v>
@@ -10860,10 +10827,10 @@
         <v>125</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>446</v>
+        <v>273</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -10943,7 +10910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F6E28B-3CC4-4563-8C64-E0388ED82FC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548B7366-0B16-4DE1-B8E6-6D787B0FBB2F}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10960,7 +10927,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11184,13 +11151,13 @@
         <v>1211</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -11205,7 +11172,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11277,7 +11244,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -11292,7 +11259,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -11307,7 +11274,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -11322,13 +11289,13 @@
         <v>3741</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>443</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -11343,7 +11310,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>452</v>
+        <v>294</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -11355,10 +11322,10 @@
         <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>255</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -11373,13 +11340,13 @@
         <v>1767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>134</v>
+        <v>432</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -11388,13 +11355,13 @@
         <v>4511</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -11403,13 +11370,13 @@
         <v>6278</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -11424,13 +11391,13 @@
         <v>287205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="H11" s="7">
         <v>268</v>
@@ -11439,13 +11406,13 @@
         <v>279137</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>241</v>
+        <v>454</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M11" s="7">
         <v>528</v>
@@ -11454,13 +11421,13 @@
         <v>566342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>94</v>
+        <v>457</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -11651,7 +11618,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -11660,13 +11627,13 @@
         <v>1083</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -11732,13 +11699,13 @@
         <v>2104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -11747,13 +11714,13 @@
         <v>8977</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>427</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -11762,13 +11729,13 @@
         <v>11081</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>28</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11789,7 +11756,7 @@
         <v>69</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>464</v>
+        <v>226</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -11804,7 +11771,7 @@
         <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>195</v>
+        <v>412</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -11816,10 +11783,10 @@
         <v>229</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>423</v>
+        <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>352</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11834,13 +11801,13 @@
         <v>4162</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>465</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -11855,7 +11822,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>388</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -11867,10 +11834,10 @@
         <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>388</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11885,13 +11852,13 @@
         <v>493204</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="H20" s="7">
         <v>468</v>
@@ -11900,13 +11867,13 @@
         <v>505923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M20" s="7">
         <v>934</v>
@@ -11915,13 +11882,13 @@
         <v>999127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12148,7 +12115,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -12163,7 +12130,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -12178,7 +12145,7 @@
         <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>223</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12196,10 +12163,10 @@
         <v>116</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -12208,13 +12175,13 @@
         <v>4692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>473</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -12223,13 +12190,13 @@
         <v>9272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>321</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>29</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12247,10 +12214,10 @@
         <v>82</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H27" s="7">
         <v>3</v>
@@ -12265,7 +12232,7 @@
         <v>132</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>78</v>
+        <v>476</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -12274,13 +12241,13 @@
         <v>12115</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>479</v>
+        <v>330</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -12298,10 +12265,10 @@
         <v>298</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -12316,7 +12283,7 @@
         <v>217</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -12325,13 +12292,13 @@
         <v>11049</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>482</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>483</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -12346,13 +12313,13 @@
         <v>292853</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H29" s="7">
         <v>319</v>
@@ -12361,13 +12328,13 @@
         <v>324430</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>488</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>627</v>
@@ -12376,13 +12343,13 @@
         <v>617283</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -12456,7 +12423,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -12486,7 +12453,7 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -12507,7 +12474,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -12537,7 +12504,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -12558,7 +12525,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -12588,7 +12555,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -12603,13 +12570,13 @@
         <v>1000</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -12639,7 +12606,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -12654,13 +12621,13 @@
         <v>5337</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -12690,7 +12657,7 @@
         <v>132</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>48</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12705,13 +12672,13 @@
         <v>5760</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -12720,13 +12687,13 @@
         <v>7064</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>389</v>
+        <v>489</v>
       </c>
       <c r="M36" s="7">
         <v>10</v>
@@ -12735,13 +12702,13 @@
         <v>12825</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>356</v>
+        <v>428</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -12756,13 +12723,13 @@
         <v>4822</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>497</v>
+        <v>367</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -12771,13 +12738,13 @@
         <v>2076</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -12789,10 +12756,10 @@
         <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12807,13 +12774,13 @@
         <v>351281</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="H38" s="7">
         <v>351</v>
@@ -12822,13 +12789,13 @@
         <v>378142</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M38" s="7">
         <v>688</v>
@@ -12837,13 +12804,13 @@
         <v>729423</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -12947,7 +12914,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12998,7 +12965,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13019,7 +12986,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -13028,13 +12995,13 @@
         <v>851</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>505</v>
+        <v>410</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -13049,7 +13016,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>151</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13100,7 +13067,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13136,7 +13103,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>149</v>
+        <v>89</v>
       </c>
       <c r="M44" s="7">
         <v>1</v>
@@ -13151,7 +13118,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13166,13 +13133,13 @@
         <v>8405</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>405</v>
+        <v>486</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H45" s="7">
         <v>1</v>
@@ -13187,7 +13154,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>21</v>
+        <v>394</v>
       </c>
       <c r="M45" s="7">
         <v>8</v>
@@ -13196,13 +13163,13 @@
         <v>9273</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -13217,13 +13184,13 @@
         <v>943</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>419</v>
+        <v>140</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -13238,7 +13205,7 @@
         <v>11</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>52</v>
+        <v>505</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -13253,7 +13220,7 @@
         <v>11</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>450</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13271,10 +13238,10 @@
         <v>305</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="H47" s="7">
         <v>219</v>
@@ -13283,13 +13250,13 @@
         <v>215095</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M47" s="7">
         <v>422</v>
@@ -13298,13 +13265,13 @@
         <v>415457</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>207</v>
+        <v>511</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>514</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13378,7 +13345,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -13429,7 +13396,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -13480,7 +13447,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -13531,7 +13498,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -13576,13 +13543,13 @@
         <v>1035</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -13612,7 +13579,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>222</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -13633,7 +13600,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -13678,13 +13645,13 @@
         <v>13101</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H55" s="7">
         <v>4</v>
@@ -13693,13 +13660,13 @@
         <v>3805</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>520</v>
+        <v>88</v>
       </c>
       <c r="M55" s="7">
         <v>15</v>
@@ -13708,13 +13675,13 @@
         <v>16906</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>521</v>
+        <v>477</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>522</v>
+        <v>410</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -13729,13 +13696,13 @@
         <v>248987</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>96</v>
+        <v>519</v>
       </c>
       <c r="H56" s="7">
         <v>259</v>
@@ -13744,13 +13711,13 @@
         <v>269310</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="M56" s="7">
         <v>506</v>
@@ -13759,13 +13726,13 @@
         <v>518298</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>531</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13941,7 +13908,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -13965,7 +13932,7 @@
         <v>1055</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
@@ -13986,13 +13953,13 @@
         <v>1784</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>387</v>
+        <v>253</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -14007,7 +13974,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>107</v>
+        <v>525</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -14022,7 +13989,7 @@
         <v>11</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>532</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14037,13 +14004,13 @@
         <v>15170</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>256</v>
+        <v>526</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -14052,13 +14019,13 @@
         <v>10141</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>535</v>
+        <v>173</v>
       </c>
       <c r="M62" s="7">
         <v>23</v>
@@ -14067,13 +14034,13 @@
         <v>25311</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>496</v>
+        <v>18</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14088,13 +14055,13 @@
         <v>14723</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>537</v>
+        <v>145</v>
       </c>
       <c r="H63" s="7">
         <v>13</v>
@@ -14103,13 +14070,13 @@
         <v>13782</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="M63" s="7">
         <v>25</v>
@@ -14121,10 +14088,10 @@
         <v>202</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>540</v>
+        <v>219</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>541</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14142,10 +14109,10 @@
         <v>109</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>322</v>
+        <v>175</v>
       </c>
       <c r="H64" s="7">
         <v>8</v>
@@ -14157,10 +14124,10 @@
         <v>142</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>73</v>
+        <v>525</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>505</v>
+        <v>334</v>
       </c>
       <c r="M64" s="7">
         <v>19</v>
@@ -14172,10 +14139,10 @@
         <v>250</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14190,13 +14157,13 @@
         <v>608332</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>545</v>
+        <v>238</v>
       </c>
       <c r="H65" s="7">
         <v>610</v>
@@ -14205,13 +14172,13 @@
         <v>653296</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="M65" s="7">
         <v>1150</v>
@@ -14220,13 +14187,13 @@
         <v>1261628</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>457</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14351,7 +14318,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="H68" s="7">
         <v>0</v>
@@ -14402,7 +14369,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="H69" s="7">
         <v>0</v>
@@ -14468,7 +14435,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>71</v>
+        <v>512</v>
       </c>
       <c r="M70" s="7">
         <v>1</v>
@@ -14501,10 +14468,10 @@
         <v>20</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>313</v>
+        <v>540</v>
       </c>
       <c r="H71" s="7">
         <v>9</v>
@@ -14513,13 +14480,13 @@
         <v>10170</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="M71" s="7">
         <v>13</v>
@@ -14531,10 +14498,10 @@
         <v>168</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -14552,10 +14519,10 @@
         <v>219</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>173</v>
+        <v>439</v>
       </c>
       <c r="H72" s="7">
         <v>13</v>
@@ -14564,13 +14531,13 @@
         <v>15428</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="M72" s="7">
         <v>24</v>
@@ -14579,13 +14546,13 @@
         <v>26581</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>203</v>
+        <v>447</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>195</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -14600,13 +14567,13 @@
         <v>19175</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>542</v>
+        <v>365</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>385</v>
+        <v>543</v>
       </c>
       <c r="H73" s="7">
         <v>10</v>
@@ -14618,10 +14585,10 @@
         <v>257</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>29</v>
+        <v>366</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="M73" s="7">
         <v>28</v>
@@ -14633,10 +14600,10 @@
         <v>83</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>388</v>
+        <v>545</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -14651,13 +14618,13 @@
         <v>740035</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H74" s="7">
         <v>722</v>
@@ -14666,13 +14633,13 @@
         <v>788151</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>413</v>
+        <v>551</v>
       </c>
       <c r="M74" s="7">
         <v>1436</v>
@@ -14681,13 +14648,13 @@
         <v>1528186</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>443</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -14812,7 +14779,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="H77" s="7">
         <v>0</v>
@@ -14836,13 +14803,13 @@
         <v>951</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="P77" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -14860,10 +14827,10 @@
         <v>69</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>422</v>
+        <v>74</v>
       </c>
       <c r="H78" s="7">
         <v>3</v>
@@ -14875,10 +14842,10 @@
         <v>279</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="M78" s="7">
         <v>8</v>
@@ -14893,7 +14860,7 @@
         <v>277</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>132</v>
+        <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -14914,7 +14881,7 @@
         <v>278</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="H79" s="7">
         <v>4</v>
@@ -14923,13 +14890,13 @@
         <v>3956</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>278</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>282</v>
+        <v>407</v>
       </c>
       <c r="M79" s="7">
         <v>7</v>
@@ -14944,7 +14911,7 @@
         <v>281</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>76</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -14962,10 +14929,10 @@
         <v>35</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="H80" s="7">
         <v>34</v>
@@ -14977,10 +14944,10 @@
         <v>35</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>519</v>
+        <v>113</v>
       </c>
       <c r="M80" s="7">
         <v>65</v>
@@ -14992,10 +14959,10 @@
         <v>35</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>260</v>
+        <v>14</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>558</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -15010,13 +14977,13 @@
         <v>56283</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>558</v>
+        <v>43</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>199</v>
+        <v>555</v>
       </c>
       <c r="H81" s="7">
         <v>43</v>
@@ -15031,7 +14998,7 @@
         <v>290</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="M81" s="7">
         <v>94</v>
@@ -15046,7 +15013,7 @@
         <v>170</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -15064,10 +15031,10 @@
         <v>109</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>534</v>
+        <v>116</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="H82" s="7">
         <v>33</v>
@@ -15079,10 +15046,10 @@
         <v>290</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>373</v>
+        <v>224</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>216</v>
+        <v>470</v>
       </c>
       <c r="M82" s="7">
         <v>94</v>
@@ -15094,10 +15061,10 @@
         <v>219</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>228</v>
+        <v>557</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>353</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -15112,13 +15079,13 @@
         <v>3222260</v>
       </c>
       <c r="E83" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="H83" s="7">
         <v>3216</v>
@@ -15127,28 +15094,28 @@
         <v>3413486</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M83" s="7">
         <v>6291</v>
       </c>
       <c r="N83" s="7">
-        <v>6635746</v>
+        <v>6635745</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>500</v>
+        <v>274</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>443</v>
+        <v>563</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -15190,7 +15157,7 @@
         <v>6560</v>
       </c>
       <c r="N84" s="7">
-        <v>6928175</v>
+        <v>6928174</v>
       </c>
       <c r="O84" s="7" t="s">
         <v>65</v>
@@ -15228,7 +15195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56322305-213B-483C-B4D1-12532CD003B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC9F20-23D4-4254-B4D3-FC9DD9C95726}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15245,7 +15212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -15622,13 +15589,13 @@
         <v>1049</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -15643,7 +15610,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -15658,13 +15625,13 @@
         <v>8963</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>567</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -15673,13 +15640,13 @@
         <v>7685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>567</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>568</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>27</v>
@@ -15691,10 +15658,10 @@
         <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>568</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>569</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -15709,10 +15676,10 @@
         <v>251335</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>571</v>
@@ -15742,10 +15709,10 @@
         <v>575</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -15834,7 +15801,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -15885,7 +15852,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -15936,7 +15903,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -15987,7 +15954,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -16038,7 +16005,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -16053,7 +16020,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>433</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -16071,10 +16038,10 @@
         <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -16086,10 +16053,10 @@
         <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>358</v>
+        <v>577</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -16101,10 +16068,10 @@
         <v>35</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -16122,7 +16089,7 @@
         <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>578</v>
@@ -16134,13 +16101,13 @@
         <v>7763</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>515</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>439</v>
       </c>
       <c r="M19" s="7">
         <v>20</v>
@@ -16152,10 +16119,10 @@
         <v>579</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -16170,10 +16137,10 @@
         <v>501590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>581</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>582</v>
@@ -16433,7 +16400,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>406</v>
+        <v>38</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -16463,7 +16430,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -16484,7 +16451,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -16499,7 +16466,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -16511,10 +16478,10 @@
         <v>135</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -16532,10 +16499,10 @@
         <v>119</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>588</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -16547,10 +16514,10 @@
         <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>522</v>
+        <v>328</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -16562,10 +16529,10 @@
         <v>168</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>286</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>353</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -16583,10 +16550,10 @@
         <v>53</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>589</v>
+        <v>90</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -16601,7 +16568,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -16613,10 +16580,10 @@
         <v>13</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>479</v>
+        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -16631,13 +16598,13 @@
         <v>313466</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="H29" s="7">
         <v>528</v>
@@ -16646,10 +16613,10 @@
         <v>368048</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>593</v>
@@ -16741,7 +16708,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -16792,7 +16759,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -16807,7 +16774,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>283</v>
+        <v>70</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -16816,13 +16783,13 @@
         <v>159</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>72</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -16843,7 +16810,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -16894,7 +16861,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -16909,7 +16876,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -16945,7 +16912,7 @@
         <v>281</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -16957,10 +16924,10 @@
         <v>119</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>261</v>
+        <v>597</v>
       </c>
       <c r="M35" s="7">
         <v>11</v>
@@ -16972,10 +16939,10 @@
         <v>138</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>67</v>
+        <v>369</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -16990,13 +16957,13 @@
         <v>17541</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -17008,10 +16975,10 @@
         <v>31</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>43</v>
+        <v>545</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>599</v>
+        <v>80</v>
       </c>
       <c r="M36" s="7">
         <v>30</v>
@@ -17020,13 +16987,13 @@
         <v>27126</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -17044,10 +17011,10 @@
         <v>292</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>337</v>
+        <v>31</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -17062,7 +17029,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -17071,13 +17038,13 @@
         <v>3351</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>434</v>
+        <v>25</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>197</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -17092,13 +17059,13 @@
         <v>300346</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>604</v>
       </c>
       <c r="H38" s="7">
         <v>574</v>
@@ -17107,13 +17074,13 @@
         <v>412663</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>605</v>
+        <v>467</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>378</v>
+        <v>450</v>
       </c>
       <c r="M38" s="7">
         <v>844</v>
@@ -17122,13 +17089,13 @@
         <v>713009</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>608</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -17211,13 +17178,13 @@
         <v>27609</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -17226,13 +17193,13 @@
         <v>27609</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -17268,7 +17235,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -17319,7 +17286,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>172</v>
+        <v>490</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -17334,7 +17301,7 @@
         <v>11</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -17370,7 +17337,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -17406,7 +17373,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H44" s="7">
         <v>6</v>
@@ -17418,10 +17385,10 @@
         <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>614</v>
+        <v>503</v>
       </c>
       <c r="M44" s="7">
         <v>8</v>
@@ -17433,10 +17400,10 @@
         <v>138</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>615</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -17457,7 +17424,7 @@
         <v>132</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
@@ -17469,10 +17436,10 @@
         <v>254</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>321</v>
+        <v>442</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
@@ -17481,13 +17448,13 @@
         <v>2892</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>616</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -17502,13 +17469,13 @@
         <v>3678</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>19</v>
+        <v>611</v>
       </c>
       <c r="H46" s="7">
         <v>3</v>
@@ -17520,10 +17487,10 @@
         <v>74</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M46" s="7">
         <v>8</v>
@@ -17532,13 +17499,13 @@
         <v>4898</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>420</v>
+        <v>612</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>111</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -17553,13 +17520,13 @@
         <v>189904</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>617</v>
+        <v>521</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>95</v>
+        <v>550</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H47" s="7">
         <v>479</v>
@@ -17568,13 +17535,13 @@
         <v>226383</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>621</v>
+        <v>498</v>
       </c>
       <c r="M47" s="7">
         <v>748</v>
@@ -17583,13 +17550,13 @@
         <v>416286</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>396</v>
+        <v>616</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>623</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -17663,7 +17630,7 @@
         <v>12</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -17678,7 +17645,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -17714,7 +17681,7 @@
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -17729,7 +17696,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -17765,7 +17732,7 @@
         <v>12</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H51" s="7">
         <v>0</v>
@@ -17780,7 +17747,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -17816,7 +17783,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -17831,7 +17798,7 @@
         <v>11</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -17846,7 +17813,7 @@
         <v>11</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>515</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -17867,7 +17834,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -17882,7 +17849,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -17897,7 +17864,7 @@
         <v>11</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -17918,7 +17885,7 @@
         <v>194</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="H54" s="7">
         <v>7</v>
@@ -17927,13 +17894,13 @@
         <v>3614</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>221</v>
+        <v>148</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="M54" s="7">
         <v>12</v>
@@ -17948,7 +17915,7 @@
         <v>20</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -17966,10 +17933,10 @@
         <v>107</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>350</v>
+        <v>132</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>627</v>
+        <v>429</v>
       </c>
       <c r="H55" s="7">
         <v>4</v>
@@ -17981,10 +17948,10 @@
         <v>32</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>628</v>
+        <v>530</v>
       </c>
       <c r="M55" s="7">
         <v>8</v>
@@ -17996,10 +17963,10 @@
         <v>110</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -18014,13 +17981,13 @@
         <v>271185</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="H56" s="7">
         <v>448</v>
@@ -18029,13 +17996,13 @@
         <v>269122</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="M56" s="7">
         <v>808</v>
@@ -18044,13 +18011,13 @@
         <v>540307</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>210</v>
+        <v>626</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -18184,13 +18151,13 @@
         <v>3644</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>636</v>
+        <v>111</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -18205,7 +18172,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>359</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -18226,7 +18193,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H60" s="7">
         <v>1</v>
@@ -18241,7 +18208,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>637</v>
+        <v>329</v>
       </c>
       <c r="M60" s="7">
         <v>2</v>
@@ -18250,13 +18217,13 @@
         <v>1634</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="P60" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>194</v>
+        <v>286</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -18289,10 +18256,10 @@
         <v>132</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="M61" s="7">
         <v>3</v>
@@ -18304,7 +18271,7 @@
         <v>112</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="Q61" s="7" t="s">
         <v>68</v>
@@ -18325,10 +18292,10 @@
         <v>13</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>638</v>
+        <v>38</v>
       </c>
       <c r="H62" s="7">
         <v>10</v>
@@ -18337,13 +18304,13 @@
         <v>6841</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>532</v>
+        <v>490</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>194</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>464</v>
+        <v>137</v>
       </c>
       <c r="M62" s="7">
         <v>17</v>
@@ -18358,7 +18325,7 @@
         <v>133</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>436</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -18373,13 +18340,13 @@
         <v>12075</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>267</v>
+        <v>628</v>
       </c>
       <c r="H63" s="7">
         <v>10</v>
@@ -18391,10 +18358,10 @@
         <v>222</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>637</v>
+        <v>327</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>639</v>
+        <v>261</v>
       </c>
       <c r="M63" s="7">
         <v>20</v>
@@ -18403,13 +18370,13 @@
         <v>22743</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>352</v>
+        <v>629</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>482</v>
+        <v>71</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>45</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -18424,13 +18391,13 @@
         <v>8022</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>640</v>
+        <v>545</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>476</v>
+        <v>631</v>
       </c>
       <c r="H64" s="7">
         <v>4</v>
@@ -18445,7 +18412,7 @@
         <v>279</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="M64" s="7">
         <v>9</v>
@@ -18457,10 +18424,10 @@
         <v>154</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -18478,10 +18445,10 @@
         <v>306</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>642</v>
+        <v>456</v>
       </c>
       <c r="H65" s="7">
         <v>929</v>
@@ -18493,10 +18460,10 @@
         <v>575</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>643</v>
+        <v>301</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>531</v>
+        <v>633</v>
       </c>
       <c r="M65" s="7">
         <v>1505</v>
@@ -18505,13 +18472,13 @@
         <v>1379584</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>301</v>
+        <v>634</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -18600,7 +18567,7 @@
         <v>12</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M67" s="7">
         <v>0</v>
@@ -18615,7 +18582,7 @@
         <v>12</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -18651,7 +18618,7 @@
         <v>12</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M68" s="7">
         <v>0</v>
@@ -18666,7 +18633,7 @@
         <v>12</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -18681,13 +18648,13 @@
         <v>2330</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="H69" s="7">
         <v>7</v>
@@ -18699,10 +18666,10 @@
         <v>224</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>417</v>
+        <v>218</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>477</v>
+        <v>114</v>
       </c>
       <c r="M69" s="7">
         <v>10</v>
@@ -18714,10 +18681,10 @@
         <v>254</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -18753,7 +18720,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -18768,7 +18735,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -18786,10 +18753,10 @@
         <v>288</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>231</v>
+        <v>75</v>
       </c>
       <c r="H71" s="7">
         <v>6</v>
@@ -18804,7 +18771,7 @@
         <v>287</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>359</v>
+        <v>545</v>
       </c>
       <c r="M71" s="7">
         <v>10</v>
@@ -18816,10 +18783,10 @@
         <v>20</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -18834,13 +18801,13 @@
         <v>9164</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>420</v>
+        <v>612</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="H72" s="7">
         <v>12</v>
@@ -18852,10 +18819,10 @@
         <v>227</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>226</v>
+        <v>440</v>
       </c>
       <c r="M72" s="7">
         <v>21</v>
@@ -18864,13 +18831,13 @@
         <v>18586</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -18885,13 +18852,13 @@
         <v>13203</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>645</v>
+        <v>347</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>377</v>
+        <v>173</v>
       </c>
       <c r="H73" s="7">
         <v>15</v>
@@ -18900,13 +18867,13 @@
         <v>12023</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>646</v>
+        <v>444</v>
       </c>
       <c r="M73" s="7">
         <v>29</v>
@@ -18918,10 +18885,10 @@
         <v>114</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>290</v>
+        <v>636</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>647</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -18936,13 +18903,13 @@
         <v>828959</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>305</v>
+        <v>638</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="H74" s="7">
         <v>1019</v>
@@ -18951,13 +18918,13 @@
         <v>831701</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>650</v>
+        <v>342</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="M74" s="7">
         <v>1751</v>
@@ -18969,10 +18936,10 @@
         <v>276</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>652</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -19058,10 +19025,10 @@
         <v>169</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>566</v>
+        <v>54</v>
       </c>
       <c r="M76" s="7">
         <v>3</v>
@@ -19073,10 +19040,10 @@
         <v>68</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>111</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -19112,7 +19079,7 @@
         <v>11</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="M77" s="7">
         <v>3</v>
@@ -19127,7 +19094,7 @@
         <v>11</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>218</v>
+        <v>282</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -19148,7 +19115,7 @@
         <v>278</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="H78" s="7">
         <v>9</v>
@@ -19157,13 +19124,13 @@
         <v>7080</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="M78" s="7">
         <v>13</v>
@@ -19175,7 +19142,7 @@
         <v>220</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="Q78" s="7" t="s">
         <v>217</v>
@@ -19199,7 +19166,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="H79" s="7">
         <v>7</v>
@@ -19214,7 +19181,7 @@
         <v>281</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="M79" s="7">
         <v>8</v>
@@ -19223,13 +19190,13 @@
         <v>5920</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P79" s="7" t="s">
         <v>278</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>112</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -19247,7 +19214,7 @@
         <v>133</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>169</v>
@@ -19262,10 +19229,10 @@
         <v>117</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>423</v>
+        <v>68</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>351</v>
+        <v>26</v>
       </c>
       <c r="M80" s="7">
         <v>52</v>
@@ -19277,7 +19244,7 @@
         <v>50</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q80" s="7" t="s">
         <v>288</v>
@@ -19295,13 +19262,13 @@
         <v>51332</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>361</v>
+        <v>568</v>
       </c>
       <c r="H81" s="7">
         <v>60</v>
@@ -19313,10 +19280,10 @@
         <v>228</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>482</v>
+        <v>229</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>440</v>
+        <v>347</v>
       </c>
       <c r="M81" s="7">
         <v>111</v>
@@ -19328,10 +19295,10 @@
         <v>222</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>355</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -19346,13 +19313,13 @@
         <v>55934</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>464</v>
+        <v>642</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>359</v>
+        <v>545</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>437</v>
+        <v>31</v>
       </c>
       <c r="H82" s="7">
         <v>56</v>
@@ -19364,10 +19331,10 @@
         <v>168</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="M82" s="7">
         <v>110</v>
@@ -19376,13 +19343,13 @@
         <v>91494</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>653</v>
+        <v>139</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>453</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -19397,13 +19364,13 @@
         <v>3259091</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>128</v>
+        <v>643</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>654</v>
+        <v>101</v>
       </c>
       <c r="H83" s="7">
         <v>5194</v>
@@ -19412,13 +19379,13 @@
         <v>3687313</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>656</v>
+        <v>60</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="M83" s="7">
         <v>8441</v>
@@ -19427,13 +19394,13 @@
         <v>6946403</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
